--- a/Sample-Menu.xlsx
+++ b/Sample-Menu.xlsx
@@ -1,324 +1,351 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
   <si>
-    <t>MONDAY</t>
-  </si>
-  <si>
-    <t>TUESDAY</t>
-  </si>
-  <si>
-    <t>WEDNESDAY</t>
-  </si>
-  <si>
-    <t>THURSDAY</t>
-  </si>
-  <si>
-    <t>FRIDAY</t>
-  </si>
-  <si>
-    <t>SATURDAY</t>
-  </si>
-  <si>
-    <t>SUNDAY</t>
-  </si>
-  <si>
-    <t>BREAKFAST</t>
-  </si>
-  <si>
-    <t>CHOICE OF EGG</t>
-  </si>
-  <si>
-    <t>NO EGG</t>
-  </si>
-  <si>
-    <t>CORNFLAKES</t>
-  </si>
-  <si>
-    <t>BREAD +JAM</t>
-  </si>
-  <si>
-    <t>TEA+ COFFEE</t>
-  </si>
-  <si>
-    <t>POHA</t>
-  </si>
-  <si>
-    <t>ALOO PARATHA</t>
-  </si>
-  <si>
-    <t>BREAD PAKODA</t>
-  </si>
-  <si>
-    <t>MUTTER KULCHA</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
-    <t>SUJI UPMA</t>
-  </si>
-  <si>
-    <t>MASALA DOSA</t>
-  </si>
-  <si>
-    <t>GRAPES</t>
-  </si>
-  <si>
-    <t>CURD</t>
-  </si>
-  <si>
-    <t>TOMATO KETCHUP</t>
-  </si>
-  <si>
-    <t>KULCHA</t>
-  </si>
-  <si>
-    <t>ADRAK CHUTNEY</t>
-  </si>
-  <si>
-    <t>SAMBHAR</t>
-  </si>
-  <si>
-    <t>PICKEL</t>
-  </si>
-  <si>
-    <t>SWEET DALIYA</t>
-  </si>
-  <si>
-    <t>CUT ONION LEMON</t>
-  </si>
-  <si>
-    <t>LUNCH</t>
-  </si>
-  <si>
-    <t>KINU</t>
-  </si>
-  <si>
-    <t>PAPAYA</t>
-  </si>
-  <si>
-    <t>ONION SALAD</t>
-  </si>
-  <si>
-    <t>BAINGAN BHARTHA</t>
-  </si>
-  <si>
-    <t>RAJMA MASALA</t>
-  </si>
-  <si>
-    <t>DISCO PAPAD</t>
-  </si>
-  <si>
-    <t>DAL FRY</t>
-  </si>
-  <si>
-    <t>GREEN CHUTNEY</t>
-  </si>
-  <si>
-    <t>KADHI PAKODA</t>
-  </si>
-  <si>
-    <t>CHAPATI</t>
-  </si>
-  <si>
-    <t>FRENCH FRIES</t>
-  </si>
-  <si>
-    <t>MADRASI ALOO</t>
-  </si>
-  <si>
-    <t>BHEL POORI</t>
-  </si>
-  <si>
-    <t>VEG POLAO</t>
-  </si>
-  <si>
-    <t>GREEN SALAD</t>
-  </si>
-  <si>
-    <t>PLAIN  RICE</t>
-  </si>
-  <si>
-    <t>RAGDA MUTTER</t>
-  </si>
-  <si>
-    <t>PANEER LABABDAR</t>
-  </si>
-  <si>
-    <t>VEG KHICHDI</t>
-  </si>
-  <si>
-    <t>SWEET POTATO DRY</t>
-  </si>
-  <si>
-    <t>PINEAPPLE RAITA</t>
-  </si>
-  <si>
-    <t>GAJAR MUTTER</t>
-  </si>
-  <si>
-    <t>BATHUA RAITA</t>
-  </si>
-  <si>
-    <t>CURD /BUTTER</t>
-  </si>
-  <si>
-    <t>DHABA CHICKEN</t>
-  </si>
-  <si>
-    <t>VEG KADHAI</t>
-  </si>
-  <si>
-    <t>CHOCO BURFI</t>
-  </si>
-  <si>
-    <t>GATTA CURRY</t>
-  </si>
-  <si>
-    <t>SHIKANJI</t>
-  </si>
-  <si>
-    <t>MIX VEG PARATHA</t>
-  </si>
-  <si>
-    <t>NAAN / CHAPATI</t>
-  </si>
-  <si>
-    <t>DAL MAHARANI</t>
-  </si>
-  <si>
-    <t>CHANNA DAL TADKA</t>
-  </si>
-  <si>
-    <t>BIRYANI RICE</t>
-  </si>
-  <si>
-    <t>DINNER</t>
-  </si>
-  <si>
-    <t>SAMBAR</t>
-  </si>
-  <si>
-    <t>ALOO CHANA CHAAT</t>
-  </si>
-  <si>
-    <t>MIX SALAD</t>
-  </si>
-  <si>
-    <t>MIRCH KE TAPORE/ LAHSUN CHUTNEY</t>
-  </si>
-  <si>
-    <t>SWEET LASSI</t>
-  </si>
-  <si>
-    <t>TAWA VEG (NO KARELA)</t>
-  </si>
-  <si>
-    <t>VEG MANCHURIAN</t>
-  </si>
-  <si>
-    <t>PASTA SALAD</t>
-  </si>
-  <si>
-    <t>ALOO RASSA</t>
-  </si>
-  <si>
-    <t>DAL PALAK</t>
-  </si>
-  <si>
-    <t>RASNA</t>
-  </si>
-  <si>
-    <t>BLACK MASOOR DAL</t>
-  </si>
-  <si>
-    <t>METHI MALAI MUTTER</t>
-  </si>
-  <si>
-    <t>EGG FRIED RICE / VEG FRIED RICE</t>
-  </si>
-  <si>
-    <t>SARSOON KA SAAG</t>
-  </si>
-  <si>
-    <t>DAL LASOONI</t>
-  </si>
-  <si>
-    <t>BATI/ CHAPATI</t>
-  </si>
-  <si>
-    <t>LEMON + ONION</t>
-  </si>
-  <si>
-    <t>PLAIN RICE</t>
-  </si>
-  <si>
-    <t>KHATTA MEETHA PUMPKIN</t>
-  </si>
-  <si>
-    <t>BALIUSHAHI</t>
-  </si>
-  <si>
-    <t>RASAM</t>
-  </si>
-  <si>
-    <t>CHOLE  MASALA</t>
-  </si>
-  <si>
-    <t>VEG KORMA</t>
-  </si>
-  <si>
-    <t>HOT CHOCO MILK</t>
-  </si>
-  <si>
-    <t>BUTTER DAL TADKA</t>
-  </si>
-  <si>
-    <t>HOT &amp; SOUR SOUP</t>
-  </si>
-  <si>
-    <t>GULAB JAMUN</t>
+    <t xml:space="preserve">MONDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUESDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEDNESDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THURSDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRIDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SATURDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREAKFAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOICE OF EGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO EGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORNFLAKES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREAD +JAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEA+ COFFEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALOO PARATHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREAD PAKODA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUTTER KULCHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUJI UPMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASALA DOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMATO KETCHUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KULCHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRAK CHUTNEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMBHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PICKEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWEET DALIYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUT ONION LEMON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KINU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONION SALAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAINGAN BHARTHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJMA MASALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO PAPAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAL FRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEN CHUTNEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KADHI PAKODA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAPATI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRENCH FRIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADRASI ALOO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHEL POORI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEG POLAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEN SALAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAIN  RICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAGDA MUTTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANEER LABABDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEG KHICHDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWEET POTATO DRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINEAPPLE RAITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAJAR MUTTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATHUA RAITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURD /BUTTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHABA CHICKEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEG KADHAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOCO BURFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATTA CURRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHIKANJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIX VEG PARATHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAAN / CHAPATI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAL MAHARANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANNA DAL TADKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIRYANI RICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DINNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMBAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALOO CHANA CHAAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIX SALAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRCH KE TAPORE/ LAHSUN CHUTNEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWEET LASSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAWA VEG (NO KARELA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEG MANCHURIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASTA SALAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALOO RASSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAL PALAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RASNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK MASOOR DAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METHI MALAI MUTTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGG FRIED RICE / VEG FRIED RICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARSOON KA SAAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAL LASOONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATI/ CHAPATI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEMON + ONION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAIN RICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHATTA MEETHA PUMPKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALIUSHAHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RASAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOLE  MASALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEG KORMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOT CHOCO MILK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUTTER DAL TADKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOT &amp; SOUR SOUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GULAB JAMUN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd-mmm-yy"/>
-    <numFmt numFmtId="165" formatCode="d-mmm-yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="166" formatCode="d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -326,7 +353,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -336,183 +363,208 @@
     </fill>
   </fills>
   <borders count="11">
-    <border/>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+  <cellXfs count="22">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,94 +575,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -618,33 +666,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -657,13 +696,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -673,15 +706,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -689,7 +720,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -697,11 +727,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -710,25 +740,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.5"/>
-    <col customWidth="1" min="2" max="2" width="22.63"/>
-    <col customWidth="1" min="3" max="3" width="20.63"/>
-    <col customWidth="1" min="4" max="4" width="17.5"/>
-    <col customWidth="1" min="5" max="5" width="29.38"/>
-    <col customWidth="1" min="6" max="6" width="19.38"/>
-    <col customWidth="1" min="7" max="7" width="19.0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,30 +784,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4">
-        <v>45327.0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>45328.0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>45329.0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45330.0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>45331.0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>45332.0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>45333.0</v>
-      </c>
-    </row>
-    <row r="3">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>45329</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>45330</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>45331</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>45332</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>45333</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -797,7 +830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -820,7 +853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -843,7 +876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -866,7 +899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -889,7 +922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
@@ -912,7 +945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -935,7 +968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -958,7 +991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -981,7 +1014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
@@ -1004,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
@@ -1027,7 +1060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -1050,7 +1083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
         <v>41</v>
       </c>
@@ -1073,7 +1106,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
@@ -1096,7 +1129,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
@@ -1119,7 +1152,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
@@ -1142,7 +1175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
@@ -1188,7 +1221,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
         <v>68</v>
       </c>
@@ -1211,7 +1244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
         <v>73</v>
       </c>
@@ -1227,18 +1260,18 @@
       <c r="E22" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -1250,14 +1283,14 @@
       <c r="E23" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="13" t="s">
         <v>79</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="s">
         <v>81</v>
       </c>
@@ -1274,24 +1307,24 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>85</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="s">
         <v>86</v>
       </c>
@@ -1305,7 +1338,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
         <v>89</v>
       </c>
@@ -1316,17 +1349,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="9" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>